--- a/artfynd/A 25837-2025 artfynd.xlsx
+++ b/artfynd/A 25837-2025 artfynd.xlsx
@@ -930,42 +930,42 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131106812</v>
+        <v>131106823</v>
       </c>
       <c r="B4" t="n">
-        <v>99013</v>
+        <v>80348</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>dm²</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>600509</v>
+        <v>600504</v>
       </c>
       <c r="R4" t="n">
-        <v>6974463</v>
+        <v>6974579</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>2025_0365</t>
+          <t>2025_0354</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>12:44</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>12:44</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1055,42 +1055,42 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131106823</v>
+        <v>131106812</v>
       </c>
       <c r="B5" t="n">
-        <v>80348</v>
+        <v>99013</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>dm²</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>600504</v>
+        <v>600509</v>
       </c>
       <c r="R5" t="n">
-        <v>6974579</v>
+        <v>6974463</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>2025_0354</t>
+          <t>2025_0365</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>12:44</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1149,7 +1149,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>12:44</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1305,10 +1305,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131106822</v>
+        <v>131106813</v>
       </c>
       <c r="B7" t="n">
-        <v>98930</v>
+        <v>99036</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1316,26 +1316,26 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>219790</v>
+        <v>221952</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1349,10 +1349,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>600502</v>
+        <v>600498</v>
       </c>
       <c r="R7" t="n">
-        <v>6974543</v>
+        <v>6974468</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1379,7 +1379,7 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>2025_0355</t>
+          <t>2025_0364</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1389,7 +1389,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>12:49</t>
+          <t>13:31</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>12:49</t>
+          <t>13:31</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1430,42 +1430,42 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131106813</v>
+        <v>131106821</v>
       </c>
       <c r="B8" t="n">
-        <v>99036</v>
+        <v>80348</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>221952</v>
+        <v>6458</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>dm²</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1474,10 +1474,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>600498</v>
+        <v>600501</v>
       </c>
       <c r="R8" t="n">
-        <v>6974468</v>
+        <v>6974538</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1504,7 +1504,7 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>2025_0364</t>
+          <t>2025_0356</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>13:31</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1524,7 +1524,12 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>13:31</t>
+          <t>12:52</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>På sälglåga</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1555,32 +1560,32 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131106821</v>
+        <v>131106822</v>
       </c>
       <c r="B9" t="n">
-        <v>80348</v>
+        <v>98930</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6458</v>
+        <v>219790</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1590,7 +1595,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>dm²</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1599,10 +1604,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>600501</v>
+        <v>600502</v>
       </c>
       <c r="R9" t="n">
-        <v>6974538</v>
+        <v>6974543</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1629,7 +1634,7 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>2025_0356</t>
+          <t>2025_0355</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -1639,7 +1644,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>12:49</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1649,12 +1654,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>12:52</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>På sälglåga</t>
+          <t>12:49</t>
         </is>
       </c>
       <c r="AD9" t="b">
